--- a/Colaboraciones plan de ventas/Asignación (venta - Producción).xlsx
+++ b/Colaboraciones plan de ventas/Asignación (venta - Producción).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiarasilva/Documents/2022-S2/Práctica II/Agrosuper/Programa Optimizar/Colaboraciones plan de ventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86EB0F5-9B13-594E-9226-0DABA21AE970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E964A2B-F690-C545-A1C8-FCBAADF720E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="500" windowWidth="16400" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19440" yWindow="500" windowWidth="16400" windowHeight="20300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Producción" sheetId="1" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -5010,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7242F2-BAE4-40B0-85A5-56C7412D554A}">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5945,7 +5945,12 @@
       <c r="D47" t="s">
         <v>399</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -5960,7 +5965,12 @@
       <c r="D48" t="s">
         <v>401</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -7932,15 +7942,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B315FE93F9F0754C8016F0B585D57BC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fea668a8bed309e88401820534600288">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f342ec37-5779-4311-8682-5bf9e34f27c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="286b6f6f588a11e844e231bd157d12db" ns2:_="">
     <xsd:import namespace="f342ec37-5779-4311-8682-5bf9e34f27c0"/>
@@ -8072,28 +8073,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <Application xmlns="http://www.sap.com/cof/excel/application">
   <Version>2</Version>
   <Revision>2.4.0.63248</Revision>
 </Application>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE16358-C54B-4B17-8B04-8FAB20BB1CD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB0028E-8CF3-42D1-8C8E-95010B267576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8111,19 +8113,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A210D6-E9AE-4AA2-A1B0-D90EF2BC7C82}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE16358-C54B-4B17-8B04-8FAB20BB1CD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.sap.com/cof/excel/application"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EF57FB3-2CBA-4521-9154-1B5470156BCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A210D6-E9AE-4AA2-A1B0-D90EF2BC7C82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.sap.com/cof/excel/application"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>